--- a/document/交易大盘数据库设计表@20180224.xlsx
+++ b/document/交易大盘数据库设计表@20180224.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="268">
   <si>
     <t>user_tab</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>pendingNumber</t>
-  </si>
-  <si>
-    <t>dealNumber</t>
   </si>
   <si>
     <t>成交数量</t>
@@ -887,10 +884,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>transaction_deal_redis__tab</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>orderNo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -940,6 +933,18 @@
   </si>
   <si>
     <t>1：未成交，2：部分成交，3：全部成交，4：部分撤销，5：全部撤销</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealNumber</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_deal_redis_tab</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1928,7 +1933,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>15</v>
@@ -1948,13 +1953,13 @@
         <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>15</v>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2756,7 +2761,7 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2794,7 +2799,7 @@
         <v>28</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>15</v>
@@ -3046,7 +3051,7 @@
         <v>28</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>15</v>
@@ -3469,7 +3474,7 @@
     </row>
     <row r="81" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B81" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>93</v>
@@ -3478,7 +3483,7 @@
         <v>28</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>15</v>
@@ -3502,7 +3507,7 @@
         <v>28</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>15</v>
@@ -4297,7 +4302,7 @@
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4553,7 +4558,7 @@
         <v>28</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>15</v>
@@ -4693,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5028,7 +5033,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>15</v>
@@ -5046,16 +5051,16 @@
         <v>168</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -5067,16 +5072,16 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>15</v>
@@ -5091,10 +5096,10 @@
     </row>
     <row r="19" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>33</v>
@@ -5112,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -5137,10 +5142,10 @@
     </row>
     <row r="21" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>37</v>
@@ -5175,10 +5180,10 @@
     </row>
     <row r="24" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
@@ -5256,7 +5261,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>17</v>
@@ -5322,7 +5327,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -5373,16 +5378,16 @@
     </row>
     <row r="32" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B32" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="56" t="s">
         <v>239</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>240</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>15</v>
@@ -5400,13 +5405,13 @@
         <v>92</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>15</v>
@@ -5421,16 +5426,16 @@
     </row>
     <row r="34" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>15</v>
@@ -5485,10 +5490,10 @@
     </row>
     <row r="38" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="67" t="s">
         <v>178</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>179</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -5638,13 +5643,13 @@
         <v>92</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>15</v>
@@ -5659,16 +5664,16 @@
     </row>
     <row r="45" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>15</v>
@@ -5727,10 +5732,10 @@
     </row>
     <row r="48" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>33</v>
@@ -5748,7 +5753,7 @@
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
       <c r="K48" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -5773,10 +5778,10 @@
     </row>
     <row r="50" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>37</v>
@@ -5813,10 +5818,10 @@
     </row>
     <row r="53" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B53" s="62" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" s="67"/>
       <c r="E53" s="67"/>
@@ -5861,10 +5866,10 @@
     </row>
     <row r="55" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B55" s="63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>17</v>
@@ -5889,10 +5894,10 @@
     </row>
     <row r="56" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B56" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>33</v>
@@ -5908,15 +5913,15 @@
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B57" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>14</v>
@@ -5935,16 +5940,16 @@
     </row>
     <row r="58" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B58" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="56" t="s">
         <v>239</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>240</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>15</v>
@@ -5959,16 +5964,16 @@
     </row>
     <row r="59" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B59" s="55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>15</v>
@@ -5983,16 +5988,16 @@
     </row>
     <row r="60" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B60" s="55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>15</v>
@@ -6007,10 +6012,10 @@
     </row>
     <row r="61" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B61" s="55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>37</v>
@@ -6021,7 +6026,7 @@
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -6063,10 +6068,10 @@
   <sheetData>
     <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="72"/>
@@ -6139,7 +6144,7 @@
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>57</v>
@@ -6163,10 +6168,10 @@
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -6227,10 +6232,10 @@
     </row>
     <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>33</v>
@@ -6248,15 +6253,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -6283,10 +6288,10 @@
     </row>
     <row r="12" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>195</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>196</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -6359,10 +6364,10 @@
     </row>
     <row r="15" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>17</v>
@@ -6381,10 +6386,10 @@
     </row>
     <row r="16" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>17</v>
@@ -6403,10 +6408,10 @@
     </row>
     <row r="17" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>17</v>
@@ -6423,10 +6428,10 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>17</v>
@@ -6443,10 +6448,10 @@
     </row>
     <row r="19" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>14</v>
@@ -6497,10 +6502,10 @@
     </row>
     <row r="22" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="67" t="s">
         <v>207</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>208</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
@@ -6573,10 +6578,10 @@
     </row>
     <row r="25" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>17</v>
@@ -6595,10 +6600,10 @@
     </row>
     <row r="26" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>17</v>
@@ -6617,10 +6622,10 @@
     </row>
     <row r="27" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
@@ -6637,10 +6642,10 @@
     </row>
     <row r="28" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>17</v>
@@ -6677,10 +6682,10 @@
     </row>
     <row r="30" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>37</v>
@@ -6707,10 +6712,10 @@
     </row>
     <row r="32" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="64" t="s">
         <v>215</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>216</v>
       </c>
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
@@ -6783,10 +6788,10 @@
     </row>
     <row r="35" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>17</v>
@@ -6805,10 +6810,10 @@
     </row>
     <row r="36" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>17</v>
@@ -6827,10 +6832,10 @@
     </row>
     <row r="37" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
@@ -6849,13 +6854,13 @@
     </row>
     <row r="38" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
@@ -6889,10 +6894,10 @@
     </row>
     <row r="40" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>37</v>
@@ -6919,10 +6924,10 @@
     </row>
     <row r="42" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="65"/>
@@ -6995,10 +7000,10 @@
     </row>
     <row r="45" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>17</v>
@@ -7017,10 +7022,10 @@
     </row>
     <row r="46" spans="2:11" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D46" s="58" t="s">
         <v>17</v>
@@ -7039,10 +7044,10 @@
     </row>
     <row r="47" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
@@ -7061,13 +7066,13 @@
     </row>
     <row r="48" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
@@ -7101,10 +7106,10 @@
     </row>
     <row r="50" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>37</v>
@@ -7131,10 +7136,10 @@
     </row>
     <row r="52" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B52" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="67" t="s">
         <v>230</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>231</v>
       </c>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
@@ -7207,10 +7212,10 @@
     </row>
     <row r="55" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>17</v>
@@ -7229,10 +7234,10 @@
     </row>
     <row r="56" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B56" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>17</v>
@@ -7251,13 +7256,13 @@
     </row>
     <row r="57" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17" t="s">
